--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/4.1.PVE_vehiculos_hibridos_consumo_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/4.1.PVE_vehiculos_hibridos_consumo_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AEB441-1A97-4CA8-84F0-6A54AC8CEEB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -26,36 +27,19 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>MRV</author>
-  </authors>
-  <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Puede ser l o m3 según tipo de combustible.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1284,18 +1268,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;????_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1528,12 +1512,6 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2050,7 +2028,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2100,18 +2078,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2130,16 +2108,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2160,34 +2138,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2196,7 +2174,7 @@
     <xf numFmtId="11" fontId="21" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,18 +2183,18 @@
     <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="14" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="12" fillId="12" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2297,7 +2275,7 @@
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2325,7 +2303,7 @@
     <xf numFmtId="4" fontId="29" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="29" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="29" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="30" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2334,7 +2312,7 @@
     <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,10 +2321,10 @@
     <xf numFmtId="0" fontId="26" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2354,11 +2332,11 @@
     <xf numFmtId="3" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="27" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2428,37 +2406,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="4" fontId="27" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="27" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="27" fillId="17" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="27" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2472,7 +2450,7 @@
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="2"/>
+    <cellStyle name="Normal 10 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2510,7 +2488,7 @@
             <xdr:cNvPr id="2" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3077,7 +3055,7 @@
             <xdr:cNvPr id="7" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3837,7 +3815,7 @@
             <xdr:cNvPr id="9" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4266,7 +4244,7 @@
         <xdr:cNvPr id="10" name="Flecha derecha 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4301,7 @@
             <xdr:cNvPr id="12" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4885,7 +4863,7 @@
             <xdr:cNvPr id="17" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5567,7 +5545,7 @@
             <xdr:cNvPr id="19" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6778,7 +6756,7 @@
         <xdr:cNvPr id="20" name="Flecha derecha 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6838,7 +6816,7 @@
         <xdr:cNvPr id="21" name="Flecha derecha 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6898,7 +6876,7 @@
         <xdr:cNvPr id="22" name="Flecha derecha 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6955,7 +6933,7 @@
             <xdr:cNvPr id="23" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7239,7 +7217,7 @@
         <xdr:cNvPr id="24" name="Flecha derecha 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7296,7 +7274,7 @@
             <xdr:cNvPr id="25" name="CuadroTexto 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8324,7 +8302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:G51"/>
   <sheetViews>
@@ -8691,7 +8669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A2:G19"/>
   <sheetViews>
@@ -8896,7 +8874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:L11"/>
   <sheetViews>
@@ -8963,7 +8941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:Z97"/>
   <sheetViews>
@@ -9011,56 +8989,56 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="N2" s="159" t="s">
+      <c r="N2" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="T2" s="159" t="s">
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="T2" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="H3" s="156" t="s">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="H3" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="N3" s="156" t="s">
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="N3" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="T3" s="156" t="s">
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="158"/>
+      <c r="T3" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
@@ -9123,7 +9101,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="161"/>
       <c r="B5" s="17" t="s">
         <v>46</v>
       </c>
@@ -9199,7 +9177,7 @@
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
@@ -9274,7 +9252,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="157"/>
+      <c r="A7" s="161"/>
       <c r="B7" s="17" t="s">
         <v>47</v>
       </c>
@@ -9374,40 +9352,40 @@
       <c r="X8" s="38"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="H10" s="156" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="H10" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="N10" s="156" t="s">
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="N10" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="T10" s="156" t="s">
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="T10" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="156"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
@@ -9470,7 +9448,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
+      <c r="A12" s="161"/>
       <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
@@ -9545,7 +9523,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
@@ -9645,40 +9623,40 @@
       <c r="X14" s="38"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="161" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="H16" s="156" t="s">
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="H16" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="N16" s="156" t="s">
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="N16" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="T16" s="156" t="s">
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="158"/>
+      <c r="T16" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="156"/>
-      <c r="V16" s="156"/>
-      <c r="W16" s="156"/>
-      <c r="X16" s="156"/>
+      <c r="U16" s="158"/>
+      <c r="V16" s="158"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="157"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
@@ -9741,7 +9719,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
@@ -9812,7 +9790,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="17" t="s">
         <v>48</v>
       </c>
@@ -9932,40 +9910,40 @@
       <c r="X21" s="38"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="H22" s="156" t="s">
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="H22" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="N22" s="156" t="s">
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="N22" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="156"/>
-      <c r="T22" s="156" t="s">
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="T22" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
+      <c r="U22" s="158"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
     </row>
     <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="19" t="s">
         <v>44</v>
       </c>
@@ -10028,7 +10006,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="157"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="17" t="s">
         <v>46</v>
       </c>
@@ -10100,7 +10078,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="17" t="s">
         <v>48</v>
       </c>
@@ -10197,40 +10175,40 @@
       <c r="X26" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="156" t="s">
+      <c r="B28" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="H28" s="156" t="s">
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="H28" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="N28" s="156" t="s">
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="N28" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="156"/>
-      <c r="P28" s="156"/>
-      <c r="Q28" s="156"/>
-      <c r="R28" s="156"/>
-      <c r="T28" s="156" t="s">
+      <c r="O28" s="158"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="158"/>
+      <c r="R28" s="158"/>
+      <c r="T28" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="156"/>
-      <c r="V28" s="156"/>
-      <c r="W28" s="156"/>
-      <c r="X28" s="156"/>
+      <c r="U28" s="158"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
+      <c r="A29" s="159"/>
       <c r="B29" s="19" t="s">
         <v>44</v>
       </c>
@@ -10293,7 +10271,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
+      <c r="A30" s="159"/>
       <c r="B30" s="17" t="s">
         <v>47</v>
       </c>
@@ -10367,12 +10345,12 @@
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52"/>
-      <c r="B31" s="161" t="s">
+      <c r="B31" s="156" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
       <c r="F31" s="38"/>
       <c r="H31" s="22"/>
       <c r="I31" s="39"/>
@@ -10391,40 +10369,40 @@
       <c r="X31" s="38"/>
     </row>
     <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162" t="s">
+      <c r="A33" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="H33" s="156" t="s">
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="H33" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="N33" s="156" t="s">
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="N33" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="O33" s="156"/>
-      <c r="P33" s="156"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="156"/>
-      <c r="T33" s="156" t="s">
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="T33" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="156"/>
-      <c r="V33" s="156"/>
-      <c r="W33" s="156"/>
-      <c r="X33" s="156"/>
+      <c r="U33" s="158"/>
+      <c r="V33" s="158"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
     </row>
     <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
+      <c r="A34" s="157"/>
       <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
@@ -10487,7 +10465,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
+      <c r="A35" s="157"/>
       <c r="B35" s="17" t="s">
         <v>47</v>
       </c>
@@ -10561,12 +10539,12 @@
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52"/>
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="156" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
       <c r="F36" s="38"/>
       <c r="H36" s="22"/>
       <c r="I36" s="39"/>
@@ -10705,27 +10683,27 @@
       <c r="G46" s="35"/>
     </row>
     <row r="48" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="158" t="s">
+      <c r="C48" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="158"/>
-      <c r="E48" s="158"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="158"/>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="158"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
+      <c r="K48" s="160"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="160"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="160"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="158"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="33">
         <v>2018</v>
       </c>
@@ -11674,18 +11652,14 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="T22:X22"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:O48"/>
     <mergeCell ref="A16:A19"/>
@@ -11702,25 +11676,29 @@
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="N33:R33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="F65" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="F64" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="F63" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="F62" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="F61" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="F60" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="F59" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="K88" r:id="rId9"/>
+    <hyperlink ref="F66" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F65" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F64" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F63" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F62" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F61" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F60" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F59" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="K88" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -11728,16 +11706,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.25">
@@ -11945,17 +11924,17 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Variables!$D$3:$D$6</xm:f>
           </x14:formula1>
           <xm:sqref>D7:D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Variables!$B$3:$B$4</xm:f>
           </x14:formula1>
